--- a/Processing/raw/DWR_ErrorTransferWorksheet_Kiana.xlsx
+++ b/Processing/raw/DWR_ErrorTransferWorksheet_Kiana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater.sharepoint.com/sites/dwr-frpa/Water Quality Lab/Data Processing/DriftCals_toCDFW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AABAC85-6ADC-48F8-AA41-0725860892DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1098" documentId="8_{A367D9F2-2D56-4BFD-B395-8BD1E3767731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286DAB46-41CE-45AD-AF8E-FA837A2569F7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0025BD01-6F64-47B6-AAC5-5A4F765DFD50}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="6" xr2:uid="{0025BD01-6F64-47B6-AAC5-5A4F765DFD50}"/>
   </bookViews>
   <sheets>
     <sheet name="ARN" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="63">
   <si>
     <t>Station</t>
   </si>
@@ -495,10 +495,10 @@
     <t>Turbidity</t>
   </si>
   <si>
-    <t>Chamberlain</t>
+    <t>THR-9</t>
   </si>
   <si>
-    <t>14J104011</t>
+    <t>19C101659</t>
   </si>
   <si>
     <t>Max Limit</t>
@@ -511,12 +511,6 @@
   </si>
   <si>
     <t>Good</t>
-  </si>
-  <si>
-    <t>THR-9</t>
-  </si>
-  <si>
-    <t>19C101659</t>
   </si>
   <si>
     <t>THR-17</t>
@@ -1113,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393EFFB6-DF4A-4F6B-BE95-8DCC144793E5}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A82" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1446,10 +1440,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5">
         <v>44547</v>
@@ -1466,10 +1460,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5">
         <v>44547</v>
@@ -1486,10 +1480,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5">
         <v>44547</v>
@@ -1506,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5">
         <v>44547</v>
@@ -1523,10 +1517,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5">
         <v>44547</v>
@@ -1641,10 +1635,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D27" s="5">
         <v>44621</v>
@@ -1661,10 +1655,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D28" s="5">
         <v>44621</v>
@@ -1681,10 +1675,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D29" s="5">
         <v>44621</v>
@@ -1701,10 +1695,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D30" s="5">
         <v>44621</v>
@@ -1719,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D31" s="5">
         <v>44621</v>
@@ -1837,10 +1831,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="5">
         <v>44700</v>
@@ -1857,10 +1851,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="5">
         <v>44700</v>
@@ -1877,10 +1871,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="5">
         <v>44700</v>
@@ -1897,10 +1891,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="5">
         <v>44700</v>
@@ -1917,10 +1911,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" s="5">
         <v>44700</v>
@@ -1937,10 +1931,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="5">
         <v>44742</v>
@@ -1957,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="5">
         <v>44742</v>
@@ -1977,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" s="5">
         <v>44742</v>
@@ -1997,10 +1991,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45" s="5">
         <v>44742</v>
@@ -2017,10 +2011,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D46" s="5">
         <v>44742</v>
@@ -2037,10 +2031,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D47" s="5">
         <v>44775</v>
@@ -2057,10 +2051,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D48" s="5">
         <v>44775</v>
@@ -2077,10 +2071,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D49" s="5">
         <v>44775</v>
@@ -2097,10 +2091,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D50" s="5">
         <v>44775</v>
@@ -2117,10 +2111,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D51" s="5">
         <v>44775</v>
@@ -2137,90 +2131,100 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D52" s="5">
-        <v>44817</v>
+        <v>44845</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D53" s="5">
-        <v>44817</v>
+        <v>44845</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D54" s="5">
-        <v>44817</v>
+        <v>44845</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D55" s="5">
-        <v>44817</v>
+        <v>44845</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D56" s="5">
-        <v>44817</v>
+        <v>44845</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
@@ -2233,7 +2237,7 @@
         <v>30</v>
       </c>
       <c r="D57" s="5">
-        <v>44845</v>
+        <v>44882</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
@@ -2253,7 +2257,7 @@
         <v>30</v>
       </c>
       <c r="D58" s="5">
-        <v>44845</v>
+        <v>44882</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>11</v>
@@ -2273,7 +2277,7 @@
         <v>30</v>
       </c>
       <c r="D59" s="5">
-        <v>44845</v>
+        <v>44882</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>12</v>
@@ -2293,13 +2297,13 @@
         <v>30</v>
       </c>
       <c r="D60" s="5">
-        <v>44845</v>
+        <v>44882</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2313,13 +2317,13 @@
         <v>30</v>
       </c>
       <c r="D61" s="5">
-        <v>44845</v>
+        <v>44882</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2327,13 +2331,13 @@
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D62" s="5">
-        <v>44882</v>
+        <v>44915</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
@@ -2347,13 +2351,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D63" s="5">
-        <v>44882</v>
+        <v>44915</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>11</v>
@@ -2367,13 +2371,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D64" s="5">
-        <v>44882</v>
+        <v>44915</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>12</v>
@@ -2387,19 +2391,19 @@
         <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D65" s="5">
-        <v>44882</v>
+        <v>44915</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2407,19 +2411,19 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D66" s="5">
-        <v>44882</v>
+        <v>44915</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2427,13 +2431,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D67" s="5">
-        <v>44915</v>
+        <v>44959</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>9</v>
@@ -2447,13 +2451,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D68" s="5">
-        <v>44915</v>
+        <v>44959</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>11</v>
@@ -2467,13 +2471,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D69" s="5">
-        <v>44915</v>
+        <v>44959</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>12</v>
@@ -2487,13 +2491,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D70" s="5">
-        <v>44915</v>
+        <v>44959</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>13</v>
@@ -2507,19 +2511,19 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D71" s="5">
-        <v>44915</v>
+        <v>44959</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2527,13 +2531,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D72" s="5">
-        <v>44959</v>
+        <v>45002</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>9</v>
@@ -2547,13 +2551,13 @@
         <v>6</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D73" s="5">
-        <v>44959</v>
+        <v>45002</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>11</v>
@@ -2567,13 +2571,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D74" s="5">
-        <v>44959</v>
+        <v>45002</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>12</v>
@@ -2587,13 +2591,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D75" s="5">
-        <v>44959</v>
+        <v>45002</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>13</v>
@@ -2607,19 +2611,19 @@
         <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D76" s="5">
-        <v>44959</v>
+        <v>45002</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2627,13 +2631,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D77" s="5">
-        <v>45002</v>
+        <v>45049</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>9</v>
@@ -2647,13 +2651,13 @@
         <v>6</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D78" s="5">
-        <v>45002</v>
+        <v>45049</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>11</v>
@@ -2667,13 +2671,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D79" s="5">
-        <v>45002</v>
+        <v>45049</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>12</v>
@@ -2687,19 +2691,19 @@
         <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D80" s="5">
-        <v>45002</v>
+        <v>45049</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2707,13 +2711,13 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D81" s="5">
-        <v>45002</v>
+        <v>45049</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>14</v>
@@ -2733,7 +2737,7 @@
         <v>34</v>
       </c>
       <c r="D82" s="5">
-        <v>45049</v>
+        <v>45083</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>9</v>
@@ -2753,7 +2757,7 @@
         <v>34</v>
       </c>
       <c r="D83" s="5">
-        <v>45049</v>
+        <v>45083</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>11</v>
@@ -2773,7 +2777,7 @@
         <v>34</v>
       </c>
       <c r="D84" s="5">
-        <v>45049</v>
+        <v>45083</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>12</v>
@@ -2793,13 +2797,13 @@
         <v>34</v>
       </c>
       <c r="D85" s="5">
-        <v>45049</v>
+        <v>45083</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2813,13 +2817,13 @@
         <v>34</v>
       </c>
       <c r="D86" s="5">
-        <v>45049</v>
+        <v>45083</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2827,13 +2831,13 @@
         <v>6</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D87" s="5">
-        <v>45083</v>
+        <v>45120</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>9</v>
@@ -2847,13 +2851,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D88" s="5">
-        <v>45083</v>
+        <v>45120</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>11</v>
@@ -2867,13 +2871,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D89" s="5">
-        <v>45083</v>
+        <v>45120</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>12</v>
@@ -2887,13 +2891,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D90" s="5">
-        <v>45083</v>
+        <v>45120</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>13</v>
@@ -2907,13 +2911,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D91" s="5">
-        <v>45083</v>
+        <v>45120</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>14</v>
@@ -2927,13 +2931,13 @@
         <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D92" s="5">
-        <v>45120</v>
+        <v>45147</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>9</v>
@@ -2947,13 +2951,13 @@
         <v>6</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D93" s="5">
-        <v>45120</v>
+        <v>45147</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>11</v>
@@ -2967,13 +2971,13 @@
         <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D94" s="5">
-        <v>45120</v>
+        <v>45147</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>12</v>
@@ -2987,13 +2991,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D95" s="5">
-        <v>45120</v>
+        <v>45147</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>13</v>
@@ -3007,19 +3011,19 @@
         <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D96" s="5">
-        <v>45120</v>
+        <v>45147</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3033,7 +3037,7 @@
         <v>38</v>
       </c>
       <c r="D97" s="5">
-        <v>45147</v>
+        <v>45176</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>9</v>
@@ -3050,10 +3054,10 @@
         <v>37</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D98" s="5">
-        <v>45147</v>
+        <v>45177</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>11</v>
@@ -3070,10 +3074,10 @@
         <v>37</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D99" s="5">
-        <v>45147</v>
+        <v>45178</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>12</v>
@@ -3090,10 +3094,10 @@
         <v>37</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D100" s="5">
-        <v>45147</v>
+        <v>45179</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
@@ -3110,10 +3114,10 @@
         <v>37</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D101" s="5">
-        <v>45147</v>
+        <v>45180</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>14</v>
@@ -3127,13 +3131,13 @@
         <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D102" s="5">
-        <v>45176</v>
+        <v>45217</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>9</v>
@@ -3147,13 +3151,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D103" s="5">
-        <v>45177</v>
+        <v>45217</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>11</v>
@@ -3167,13 +3171,13 @@
         <v>6</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D104" s="5">
-        <v>45178</v>
+        <v>45217</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>12</v>
@@ -3187,13 +3191,13 @@
         <v>6</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D105" s="5">
-        <v>45179</v>
+        <v>45217</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>13</v>
@@ -3207,19 +3211,19 @@
         <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D106" s="5">
-        <v>45180</v>
+        <v>45217</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3227,13 +3231,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D107" s="5">
-        <v>45217</v>
+        <v>45251</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>9</v>
@@ -3247,13 +3251,13 @@
         <v>6</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D108" s="5">
-        <v>45217</v>
+        <v>45251</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>11</v>
@@ -3267,19 +3271,19 @@
         <v>6</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D109" s="5">
-        <v>45217</v>
+        <v>45251</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3287,13 +3291,13 @@
         <v>6</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D110" s="5">
-        <v>45217</v>
+        <v>45251</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>13</v>
@@ -3307,19 +3311,19 @@
         <v>6</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D111" s="5">
-        <v>45217</v>
+        <v>45251</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3327,13 +3331,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D112" s="5">
-        <v>45251</v>
+        <v>45279</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>9</v>
@@ -3347,13 +3351,13 @@
         <v>6</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D113" s="5">
-        <v>45251</v>
+        <v>45279</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>11</v>
@@ -3367,19 +3371,19 @@
         <v>6</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D114" s="5">
-        <v>45251</v>
+        <v>45279</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3387,13 +3391,13 @@
         <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D115" s="5">
-        <v>45251</v>
+        <v>45279</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>13</v>
@@ -3407,124 +3411,24 @@
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D116" s="5">
-        <v>45251</v>
+        <v>45279</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="5">
-        <v>45279</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D118" s="5">
-        <v>45279</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" s="5">
-        <v>45279</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="5">
-        <v>45279</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121" s="5">
-        <v>45279</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B102:B106">
+  <conditionalFormatting sqref="B97:B101">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
@@ -3539,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE700DF-A07C-4064-83BF-2B00B9DE2E43}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3577,13 +3481,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>44742</v>
@@ -3597,13 +3501,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>44742</v>
@@ -3617,13 +3521,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
       </c>
       <c r="D4" s="1">
         <v>44742</v>
@@ -3637,13 +3541,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
       </c>
       <c r="D5" s="1">
         <v>44742</v>
@@ -3654,13 +3558,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
       </c>
       <c r="D6" s="1">
         <v>44742</v>
@@ -3674,13 +3578,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1">
         <v>44775</v>
@@ -3694,13 +3598,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
         <v>44775</v>
@@ -3714,13 +3618,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>44775</v>
@@ -3734,13 +3638,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
         <v>44775</v>
@@ -3754,13 +3658,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
         <v>44775</v>
@@ -3774,13 +3678,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>44817</v>
@@ -3794,13 +3698,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="1">
         <v>44817</v>
@@ -3814,13 +3718,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
       </c>
       <c r="D14" s="1">
         <v>44817</v>
@@ -3834,13 +3738,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="1">
         <v>44817</v>
@@ -3854,13 +3758,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
       </c>
       <c r="D16" s="1">
         <v>44817</v>
@@ -3874,13 +3778,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>44845</v>
@@ -3894,13 +3798,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>44845</v>
@@ -3914,13 +3818,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>44845</v>
@@ -3934,13 +3838,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>44845</v>
@@ -3954,13 +3858,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
         <v>44845</v>
@@ -3974,13 +3878,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <v>44882</v>
@@ -3994,13 +3898,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
         <v>44882</v>
@@ -4014,13 +3918,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
         <v>44882</v>
@@ -4034,13 +3938,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1">
         <v>44882</v>
@@ -4054,13 +3958,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1">
         <v>44882</v>
@@ -4074,13 +3978,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
         <v>44915</v>
@@ -4094,13 +3998,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
         <v>44915</v>
@@ -4114,13 +4018,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1">
         <v>44915</v>
@@ -4134,13 +4038,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1">
         <v>44915</v>
@@ -4154,13 +4058,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1">
         <v>44915</v>
@@ -4174,13 +4078,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>44959</v>
@@ -4194,13 +4098,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
         <v>44959</v>
@@ -4214,13 +4118,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
         <v>44959</v>
@@ -4234,13 +4138,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
         <v>44959</v>
@@ -4254,13 +4158,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>44959</v>
@@ -4274,13 +4178,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
         <v>45002</v>
@@ -4294,13 +4198,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1">
         <v>45002</v>
@@ -4314,13 +4218,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
         <v>45002</v>
@@ -4334,13 +4238,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1">
         <v>45002</v>
@@ -4354,13 +4258,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1">
         <v>45002</v>
@@ -4374,13 +4278,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1">
         <v>45049</v>
@@ -4394,13 +4298,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1">
         <v>45049</v>
@@ -4414,13 +4318,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>45049</v>
@@ -4434,13 +4338,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" s="1">
         <v>45049</v>
@@ -4454,13 +4358,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" s="1">
         <v>45049</v>
@@ -4474,13 +4378,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D47" s="1">
         <v>45083</v>
@@ -4494,13 +4398,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1">
         <v>45083</v>
@@ -4514,13 +4418,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1">
         <v>45083</v>
@@ -4534,13 +4438,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1">
         <v>45083</v>
@@ -4554,13 +4458,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D51" s="1">
         <v>45083</v>
@@ -4574,13 +4478,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D52" s="1">
         <v>45120</v>
@@ -4594,13 +4498,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D53" s="1">
         <v>45120</v>
@@ -4614,13 +4518,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D54" s="1">
         <v>45120</v>
@@ -4634,13 +4538,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D55" s="1">
         <v>45120</v>
@@ -4654,13 +4558,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1">
         <v>45120</v>
@@ -4674,13 +4578,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" s="1">
         <v>45155</v>
@@ -4694,13 +4598,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1">
         <v>45155</v>
@@ -4714,13 +4618,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1">
         <v>45155</v>
@@ -4734,13 +4638,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D60" s="1">
         <v>45155</v>
@@ -4754,13 +4658,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D61" s="1">
         <v>45155</v>
@@ -4774,13 +4678,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
         <v>47</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
       </c>
       <c r="D62" s="1">
         <v>45176</v>
@@ -4794,13 +4698,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
         <v>47</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" t="s">
-        <v>49</v>
       </c>
       <c r="D63" s="1">
         <v>45176</v>
@@ -4814,13 +4718,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
         <v>47</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" t="s">
-        <v>49</v>
       </c>
       <c r="D64" s="1">
         <v>45176</v>
@@ -4834,13 +4738,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
         <v>47</v>
-      </c>
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" t="s">
-        <v>49</v>
       </c>
       <c r="D65" s="1">
         <v>45176</v>
@@ -4854,13 +4758,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
         <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>49</v>
       </c>
       <c r="D66" s="1">
         <v>45176</v>
@@ -4874,16 +4778,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D67" s="1">
-        <v>45251</v>
+        <v>45216</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>9</v>
@@ -4894,16 +4798,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D68" s="1">
-        <v>45251</v>
+        <v>45216</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>11</v>
@@ -4914,16 +4818,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D69" s="1">
-        <v>45251</v>
+        <v>45216</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>12</v>
@@ -4934,16 +4838,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D70" s="1">
-        <v>45251</v>
+        <v>45216</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>13</v>
@@ -4954,22 +4858,222 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D71" s="1">
-        <v>45251</v>
+        <v>45216</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45251</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45251</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45251</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45251</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45251</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45279</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45279</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45279</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45279</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45279</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5019,13 +5123,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
       </c>
       <c r="D2" s="1">
         <v>45230</v>
@@ -5039,13 +5143,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>45230</v>
@@ -5059,13 +5163,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
       </c>
       <c r="D4" s="1">
         <v>45230</v>
@@ -5079,13 +5183,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
       </c>
       <c r="D5" s="1">
         <v>45230</v>
@@ -5099,13 +5203,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="1">
         <v>45230</v>
@@ -5128,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA2DA4-2E59-4C43-BB5E-328E7C428D91}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -5164,13 +5268,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>44693</v>
@@ -5184,13 +5288,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>44693</v>
@@ -5204,13 +5308,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1">
         <v>44693</v>
@@ -5224,13 +5328,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1">
         <v>44693</v>
@@ -5244,13 +5348,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1">
         <v>44693</v>
@@ -5264,13 +5368,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>44735</v>
@@ -5284,13 +5388,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>44735</v>
@@ -5304,13 +5408,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>44735</v>
@@ -5324,13 +5428,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>44735</v>
@@ -5344,13 +5448,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>44735</v>
@@ -5364,13 +5468,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>44826</v>
@@ -5384,13 +5488,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>44826</v>
@@ -5404,13 +5508,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>44826</v>
@@ -5424,13 +5528,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>44826</v>
@@ -5444,13 +5548,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>44826</v>
@@ -5464,13 +5568,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1">
         <v>44852</v>
@@ -5484,13 +5588,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1">
         <v>44852</v>
@@ -5504,13 +5608,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1">
         <v>44852</v>
@@ -5524,13 +5628,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
         <v>44852</v>
@@ -5544,13 +5648,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>44852</v>
@@ -5564,13 +5668,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1">
         <v>44887</v>
@@ -5584,13 +5688,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
         <v>44887</v>
@@ -5604,13 +5708,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
         <v>44887</v>
@@ -5624,13 +5728,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
         <v>44887</v>
@@ -5644,13 +5748,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
         <v>44887</v>
@@ -5664,13 +5768,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1">
         <v>44924</v>
@@ -5684,13 +5788,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1">
         <v>44924</v>
@@ -5704,13 +5808,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1">
         <v>44924</v>
@@ -5724,13 +5828,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>44924</v>
@@ -5744,13 +5848,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1">
         <v>44924</v>
@@ -5764,13 +5868,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1">
         <v>44964</v>
@@ -5784,13 +5888,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
         <v>44964</v>
@@ -5804,13 +5908,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1">
         <v>44964</v>
@@ -5824,13 +5928,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1">
         <v>44964</v>
@@ -5844,13 +5948,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
         <v>44964</v>
@@ -5864,13 +5968,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
         <v>57</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
       </c>
       <c r="D37" s="1">
         <v>45001</v>
@@ -5884,13 +5988,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
         <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
       </c>
       <c r="D38" s="1">
         <v>45001</v>
@@ -5904,13 +6008,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
         <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
       </c>
       <c r="D39" s="1">
         <v>45001</v>
@@ -5924,13 +6028,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
         <v>57</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
-        <v>59</v>
       </c>
       <c r="D40" s="1">
         <v>45001</v>
@@ -5944,13 +6048,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
         <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
       </c>
       <c r="D41" s="1">
         <v>45001</v>
@@ -5964,13 +6068,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1">
         <v>45041</v>
@@ -5984,13 +6088,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1">
         <v>45041</v>
@@ -6004,13 +6108,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1">
         <v>45041</v>
@@ -6024,13 +6128,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1">
         <v>45041</v>
@@ -6044,13 +6148,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1">
         <v>45041</v>
@@ -6064,13 +6168,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1">
         <v>45078</v>
@@ -6084,13 +6188,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48" s="1">
         <v>45078</v>
@@ -6104,13 +6208,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D49" s="1">
         <v>45078</v>
@@ -6124,13 +6228,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50" s="1">
         <v>45078</v>
@@ -6144,13 +6248,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1">
         <v>45078</v>
@@ -6164,13 +6268,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
         <v>57</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
       </c>
       <c r="D52" s="1">
         <v>45118</v>
@@ -6184,13 +6288,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
         <v>57</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>59</v>
       </c>
       <c r="D53" s="1">
         <v>45118</v>
@@ -6204,13 +6308,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
         <v>57</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
       </c>
       <c r="D54" s="1">
         <v>45118</v>
@@ -6224,13 +6328,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
         <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>59</v>
       </c>
       <c r="D55" s="1">
         <v>45118</v>
@@ -6244,13 +6348,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
         <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="s">
-        <v>59</v>
       </c>
       <c r="D56" s="1">
         <v>45118</v>
@@ -6264,13 +6368,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1">
         <v>45152</v>
@@ -6284,13 +6388,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1">
         <v>45152</v>
@@ -6304,13 +6408,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D59" s="1">
         <v>45152</v>
@@ -6324,13 +6428,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1">
         <v>45152</v>
@@ -6344,13 +6448,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D61" s="1">
         <v>45152</v>
@@ -6364,13 +6468,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D62" s="1">
         <v>45194</v>
@@ -6384,16 +6488,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D63" s="1">
-        <v>45195</v>
+        <v>45194</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>11</v>
@@ -6404,16 +6508,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="1">
-        <v>45196</v>
+        <v>45194</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>12</v>
@@ -6424,16 +6528,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D65" s="1">
-        <v>45197</v>
+        <v>45194</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>13</v>
@@ -6444,16 +6548,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D66" s="1">
-        <v>45198</v>
+        <v>45194</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>14</v>
@@ -6464,13 +6568,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1">
         <v>45223</v>
@@ -6484,13 +6588,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D68" s="1">
         <v>45223</v>
@@ -6504,13 +6608,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D69" s="1">
         <v>45223</v>
@@ -6524,13 +6628,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1">
         <v>45223</v>
@@ -6544,13 +6648,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D71" s="1">
         <v>45223</v>
@@ -6564,13 +6668,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D72" s="1">
         <v>45258</v>
@@ -6584,13 +6688,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D73" s="1">
         <v>45258</v>
@@ -6604,13 +6708,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D74" s="1">
         <v>45258</v>
@@ -6624,13 +6728,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D75" s="1">
         <v>45258</v>
@@ -6644,13 +6748,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D76" s="1">
         <v>45258</v>
@@ -6674,7 +6778,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6709,13 +6813,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>44693</v>
@@ -6729,13 +6833,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>44693</v>
@@ -6744,18 +6848,18 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>44693</v>
@@ -6769,13 +6873,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
         <v>44693</v>
@@ -6789,13 +6893,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>44693</v>
@@ -6804,18 +6908,18 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>44886</v>
@@ -6829,13 +6933,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>44886</v>
@@ -6849,13 +6953,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>44886</v>
@@ -6869,13 +6973,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>44886</v>
@@ -6889,13 +6993,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>44886</v>
@@ -6909,13 +7013,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>44945</v>
@@ -6929,13 +7033,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>44945</v>
@@ -6949,13 +7053,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>44945</v>
@@ -6969,13 +7073,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>44945</v>
@@ -6989,13 +7093,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>44945</v>
@@ -7009,13 +7113,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>44945</v>
@@ -7029,13 +7133,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>44985</v>
@@ -7049,13 +7153,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1">
         <v>44985</v>
@@ -7069,13 +7173,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1">
         <v>44985</v>
@@ -7089,13 +7193,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1">
         <v>44985</v>
@@ -7109,13 +7213,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
         <v>45020</v>
@@ -7129,13 +7233,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1">
         <v>45020</v>
@@ -7149,13 +7253,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1">
         <v>45020</v>
@@ -7169,13 +7273,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1">
         <v>45020</v>
@@ -7189,13 +7293,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1">
         <v>45020</v>
@@ -7209,13 +7313,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="1">
         <v>45057</v>
@@ -7229,13 +7333,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
       </c>
       <c r="D28" s="1">
         <v>45057</v>
@@ -7249,13 +7353,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
       </c>
       <c r="D29" s="1">
         <v>45057</v>
@@ -7269,13 +7373,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
       </c>
       <c r="D30" s="1">
         <v>45057</v>
@@ -7289,13 +7393,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
       </c>
       <c r="D31" s="1">
         <v>45057</v>
@@ -7309,13 +7413,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1">
         <v>45099</v>
@@ -7329,13 +7433,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
         <v>45099</v>
@@ -7349,13 +7453,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1">
         <v>45099</v>
@@ -7369,13 +7473,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1">
         <v>45099</v>
@@ -7389,13 +7493,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
         <v>45099</v>
@@ -7409,13 +7513,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
         <v>45132</v>
@@ -7429,13 +7533,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1">
         <v>45132</v>
@@ -7449,13 +7553,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
         <v>45132</v>
@@ -7469,13 +7573,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1">
         <v>45132</v>
@@ -7489,13 +7593,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1">
         <v>45132</v>
@@ -7509,13 +7613,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1">
         <v>45145</v>
@@ -7529,13 +7633,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1">
         <v>45145</v>
@@ -7549,13 +7653,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1">
         <v>45145</v>
@@ -7569,13 +7673,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1">
         <v>45145</v>
@@ -7589,13 +7693,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1">
         <v>45145</v>
@@ -7609,13 +7713,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1">
         <v>45175</v>
@@ -7629,13 +7733,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1">
         <v>45175</v>
@@ -7649,13 +7753,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1">
         <v>45175</v>
@@ -7669,13 +7773,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="1">
         <v>45175</v>
@@ -7689,13 +7793,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="1">
         <v>45175</v>
@@ -7709,13 +7813,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" s="1">
         <v>45223</v>
@@ -7729,13 +7833,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53" s="1">
         <v>45223</v>
@@ -7749,13 +7853,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="1">
         <v>45223</v>
@@ -7769,13 +7873,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1">
         <v>45223</v>
@@ -7789,13 +7893,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1">
         <v>45223</v>
@@ -7809,13 +7913,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" s="1">
         <v>45244</v>
@@ -7829,13 +7933,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1">
         <v>45244</v>
@@ -7849,13 +7953,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1">
         <v>45244</v>
@@ -7869,13 +7973,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D60" s="1">
         <v>45244</v>
@@ -7889,13 +7993,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D61" s="1">
         <v>45244</v>
@@ -7909,13 +8013,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D62" s="1">
         <v>45281</v>
@@ -7929,13 +8033,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D63" s="1">
         <v>45281</v>
@@ -7949,13 +8053,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1">
         <v>45281</v>
@@ -7969,13 +8073,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D65" s="1">
         <v>45281</v>
@@ -7989,13 +8093,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D66" s="1">
         <v>45281</v>
@@ -8034,8 +8138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00479472-83FC-4533-88FC-9BEF47384DA6}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8069,13 +8173,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
         <v>45022</v>
@@ -8089,16 +8193,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -8109,16 +8213,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>45024</v>
+        <v>45022</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
@@ -8129,16 +8233,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
-        <v>45025</v>
+        <v>45022</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -8149,16 +8253,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
-        <v>45026</v>
+        <v>45022</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
@@ -8169,13 +8273,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1">
         <v>45062</v>
@@ -8189,13 +8293,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
         <v>45062</v>
@@ -8209,13 +8313,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>45062</v>
@@ -8229,13 +8333,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
         <v>45062</v>
@@ -8249,13 +8353,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
         <v>45062</v>
@@ -8269,13 +8373,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>45097</v>
@@ -8289,13 +8393,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
         <v>45097</v>
@@ -8309,13 +8413,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>45097</v>
@@ -8329,13 +8433,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
         <v>45097</v>
@@ -8349,13 +8453,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
         <v>45097</v>
@@ -8369,13 +8473,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
         <v>45132</v>
@@ -8389,13 +8493,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1">
         <v>45132</v>
@@ -8409,13 +8513,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1">
         <v>45132</v>
@@ -8429,13 +8533,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1">
         <v>45132</v>
@@ -8449,13 +8553,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>45132</v>
@@ -8469,13 +8573,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <v>45145</v>
@@ -8489,13 +8593,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <v>45145</v>
@@ -8509,13 +8613,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1">
         <v>45145</v>
@@ -8529,13 +8633,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
         <v>45145</v>
@@ -8549,13 +8653,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>45145</v>
@@ -8569,13 +8673,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>45175</v>
@@ -8589,13 +8693,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>45175</v>
@@ -8604,18 +8708,18 @@
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1">
         <v>45175</v>
@@ -8629,13 +8733,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1">
         <v>45175</v>
@@ -8649,13 +8753,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1">
         <v>45175</v>
@@ -8669,13 +8773,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1">
         <v>45226</v>
@@ -8689,13 +8793,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1">
         <v>45226</v>
@@ -8709,13 +8813,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1">
         <v>45226</v>
@@ -8729,13 +8833,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1">
         <v>45226</v>
@@ -8749,13 +8853,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1">
         <v>45226</v>
@@ -8769,13 +8873,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1">
         <v>45244</v>
@@ -8789,13 +8893,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1">
         <v>45244</v>
@@ -8809,13 +8913,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1">
         <v>45244</v>
@@ -8829,13 +8933,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1">
         <v>45244</v>
@@ -8849,13 +8953,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1">
         <v>45244</v>
@@ -8869,13 +8973,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1">
         <v>45272</v>
@@ -8889,13 +8993,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1">
         <v>45272</v>
@@ -8909,13 +9013,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1">
         <v>45272</v>
@@ -8929,13 +9033,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1">
         <v>45272</v>
@@ -8947,13 +9051,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" s="1">
         <v>45272</v>
@@ -8976,8 +9080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FEE476-286F-41CD-B41E-6E9B983F9203}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -9012,13 +9116,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>44994</v>
@@ -9032,13 +9136,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>44994</v>
@@ -9052,13 +9156,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>44994</v>
@@ -9072,13 +9176,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>44994</v>
@@ -9092,13 +9196,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>44994</v>
@@ -9112,13 +9216,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>45035</v>
@@ -9132,13 +9236,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>45035</v>
@@ -9152,13 +9256,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>45035</v>
@@ -9172,13 +9276,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>45035</v>
@@ -9192,13 +9296,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>45035</v>
@@ -9212,13 +9316,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>45071</v>
@@ -9232,13 +9336,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>45071</v>
@@ -9252,13 +9356,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>45071</v>
@@ -9272,13 +9376,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>45071</v>
@@ -9292,13 +9396,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>45071</v>
@@ -9312,13 +9416,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
         <v>45092</v>
@@ -9332,13 +9436,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>45092</v>
@@ -9352,13 +9456,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1">
         <v>45092</v>
@@ -9372,13 +9476,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1">
         <v>45092</v>
@@ -9392,13 +9496,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1">
         <v>45092</v>
@@ -9412,13 +9516,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
         <v>45125</v>
@@ -9432,13 +9536,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
         <v>45125</v>
@@ -9452,13 +9556,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1">
         <v>45125</v>
@@ -9472,13 +9576,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>45125</v>
@@ -9492,13 +9596,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
         <v>45125</v>
@@ -9512,13 +9616,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1">
         <v>45162</v>
@@ -9532,13 +9636,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1">
         <v>45162</v>
@@ -9552,13 +9656,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1">
         <v>45162</v>
@@ -9572,13 +9676,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1">
         <v>45162</v>
@@ -9592,13 +9696,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1">
         <v>45162</v>
@@ -9612,13 +9716,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>45195</v>
@@ -9632,13 +9736,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
         <v>45195</v>
@@ -9652,13 +9756,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
         <v>45195</v>
@@ -9672,13 +9776,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
         <v>45195</v>
@@ -9692,13 +9796,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>45195</v>
@@ -9712,13 +9816,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1">
         <v>45225</v>
@@ -9732,13 +9836,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1">
         <v>45225</v>
@@ -9752,13 +9856,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1">
         <v>45225</v>
@@ -9772,13 +9876,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="1">
         <v>45225</v>
@@ -9792,13 +9896,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1">
         <v>45225</v>
@@ -9812,13 +9916,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1">
         <v>45266</v>
@@ -9832,13 +9936,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1">
         <v>45266</v>
@@ -9852,13 +9956,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1">
         <v>45266</v>
@@ -9872,13 +9976,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1">
         <v>45266</v>
@@ -9892,13 +9996,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46" s="1">
         <v>45266</v>

--- a/Processing/raw/DWR_ErrorTransferWorksheet_Kiana.xlsx
+++ b/Processing/raw/DWR_ErrorTransferWorksheet_Kiana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater.sharepoint.com/sites/dwr-frpa/Water Quality Lab/Data Processing/DriftCals_toCDFW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1098" documentId="8_{A367D9F2-2D56-4BFD-B395-8BD1E3767731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286DAB46-41CE-45AD-AF8E-FA837A2569F7}"/>
+  <xr:revisionPtr revIDLastSave="1569" documentId="8_{A367D9F2-2D56-4BFD-B395-8BD1E3767731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C95FF222-BB5D-4224-894C-F89A3CEEAB51}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="6" xr2:uid="{0025BD01-6F64-47B6-AAC5-5A4F765DFD50}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{0025BD01-6F64-47B6-AAC5-5A4F765DFD50}"/>
   </bookViews>
   <sheets>
     <sheet name="ARN" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="63">
   <si>
     <t>Station</t>
   </si>
@@ -646,7 +646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -749,11 +749,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -775,25 +784,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -811,9 +814,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -851,7 +854,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -957,7 +960,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1099,7 +1102,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1107,23 +1110,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393EFFB6-DF4A-4F6B-BE95-8DCC144793E5}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A61" zoomScale="93" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2"/>
-    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="17.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1224,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1322,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1340,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1418,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1613,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1711,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1806,7 +1809,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -3426,11 +3429,448 @@
         <v>18</v>
       </c>
     </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" s="5">
+        <v>45349</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="5">
+        <v>45349</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" s="5">
+        <v>45349</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" s="5">
+        <v>45349</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="5">
+        <v>45349</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="5">
+        <v>45386</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="5">
+        <v>45386</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="5">
+        <v>45386</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="5">
+        <v>45386</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="5">
+        <v>45386</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="5">
+        <v>45413</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="5">
+        <v>45413</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="5">
+        <v>45413</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="5">
+        <v>45413</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="5">
+        <v>45413</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="5">
+        <v>45441</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="5">
+        <v>45441</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="5">
+        <v>45441</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="5">
+        <v>45441</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="5">
+        <v>45441</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B97:B101">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(D2))=0</formula>
@@ -3443,23 +3883,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE700DF-A07C-4064-83BF-2B00B9DE2E43}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3479,7 +3919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -3499,7 +3939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -3519,7 +3959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3539,7 +3979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -3556,7 +3996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3576,7 +4016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3596,7 +4036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -3616,7 +4056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3636,7 +4076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -3656,7 +4096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -3676,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3696,7 +4136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3716,7 +4156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -3736,7 +4176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3756,7 +4196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3776,7 +4216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3796,7 +4236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -3816,7 +4256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -3836,7 +4276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -3856,7 +4296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3876,7 +4316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3896,7 +4336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3916,7 +4356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -3936,7 +4376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3956,7 +4396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3976,7 +4416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -3996,7 +4436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -4016,7 +4456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -4036,7 +4476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4056,7 +4496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -4076,7 +4516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -4096,7 +4536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -4116,7 +4556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4136,7 +4576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -4156,7 +4596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4176,7 +4616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -4196,7 +4636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -4216,7 +4656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -4236,7 +4676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -4256,7 +4696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4276,7 +4716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -4296,7 +4736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4316,7 +4756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -4336,7 +4776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -4356,7 +4796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4376,7 +4816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4396,7 +4836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -4416,7 +4856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -4436,7 +4876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -4456,7 +4896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -4476,7 +4916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -4496,7 +4936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -4516,7 +4956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -4536,7 +4976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -4556,7 +4996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -4576,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -4596,7 +5036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -4616,7 +5056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -4636,7 +5076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -4656,7 +5096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -4676,7 +5116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -4696,7 +5136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -4716,7 +5156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -4736,7 +5176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -4756,7 +5196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -4776,7 +5216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -4796,7 +5236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -4816,7 +5256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -4836,7 +5276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -4856,7 +5296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>45</v>
       </c>
@@ -4876,7 +5316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>45</v>
       </c>
@@ -4896,7 +5336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -4916,7 +5356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -4936,7 +5376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -4956,7 +5396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -4976,7 +5416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -4996,7 +5436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -5016,7 +5456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -5036,7 +5476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -5056,7 +5496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -5074,6 +5514,306 @@
       </c>
       <c r="F81" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45349</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45349</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45349</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45349</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45349</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45413</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45413</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45413</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45413</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45413</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5085,23 +5825,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBA05E-61DF-4DC6-9C13-69E60CE20FE6}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5121,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -5141,7 +5881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -5161,7 +5901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -5181,7 +5921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -5201,7 +5941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -5219,6 +5959,606 @@
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45308</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45308</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45308</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45308</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45308</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45370</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45370</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45370</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45370</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45370</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45398</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45398</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45398</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45398</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45398</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45454</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45454</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45454</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45454</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45454</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5230,23 +6570,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA2DA4-2E59-4C43-BB5E-328E7C428D91}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5266,7 +6606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -5286,7 +6626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -5306,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -5326,7 +6666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -5346,7 +6686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5366,7 +6706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -5386,7 +6726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -5406,7 +6746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -5426,7 +6766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -5446,7 +6786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -5466,7 +6806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5486,7 +6826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -5506,7 +6846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -5526,7 +6866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -5546,7 +6886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5566,7 +6906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -5586,7 +6926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -5606,7 +6946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -5626,7 +6966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -5646,7 +6986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -5666,7 +7006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -5686,7 +7026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -5706,7 +7046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -5726,7 +7066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -5746,7 +7086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -5766,7 +7106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -5786,7 +7126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5806,7 +7146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -5826,7 +7166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -5846,7 +7186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -5866,7 +7206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -5886,7 +7226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -5906,7 +7246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -5926,7 +7266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -5946,7 +7286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -5966,7 +7306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -5986,7 +7326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -6006,7 +7346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -6026,7 +7366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -6046,7 +7386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -6066,7 +7406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -6086,7 +7426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -6106,7 +7446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -6126,7 +7466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -6146,7 +7486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6166,7 +7506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -6186,7 +7526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -6206,7 +7546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -6226,7 +7566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -6246,7 +7586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -6266,7 +7606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -6286,7 +7626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -6306,7 +7646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -6326,7 +7666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -6346,7 +7686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6366,7 +7706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -6386,7 +7726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6406,7 +7746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -6426,7 +7766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -6446,7 +7786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -6466,7 +7806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -6486,7 +7826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -6506,7 +7846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -6526,7 +7866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -6546,7 +7886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -6566,7 +7906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -6586,7 +7926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -6606,7 +7946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -6626,7 +7966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -6646,7 +7986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -6666,7 +8006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -6686,7 +8026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -6706,7 +8046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -6726,7 +8066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -6746,7 +8086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -6764,6 +8104,506 @@
       </c>
       <c r="F76" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45295</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45295</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45295</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45295</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45295</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45330</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45362</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45362</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45362</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45362</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45362</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45421</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45421</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45421</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45421</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45421</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6775,23 +8615,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7A821-3B78-4236-851A-0E49CB8DA3F0}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6811,7 +8651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -6831,7 +8671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -6851,7 +8691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -6871,7 +8711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -6891,7 +8731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -6911,7 +8751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -6931,7 +8771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -6951,7 +8791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -6971,7 +8811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -6991,7 +8831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -7011,7 +8851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -7031,7 +8871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -7051,7 +8891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -7071,7 +8911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -7091,7 +8931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -7111,7 +8951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -7131,7 +8971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -7151,7 +8991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -7171,7 +9011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -7191,7 +9031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -7211,7 +9051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -7231,7 +9071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -7251,7 +9091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -7271,7 +9111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -7291,7 +9131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -7311,7 +9151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -7331,7 +9171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -7351,7 +9191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -7371,7 +9211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -7391,7 +9231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -7411,7 +9251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -7431,7 +9271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -7451,7 +9291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -7471,7 +9311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -7491,7 +9331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -7511,7 +9351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -7531,7 +9371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -7551,7 +9391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -7571,7 +9411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -7591,7 +9431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -7611,7 +9451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -7631,7 +9471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -7651,7 +9491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -7671,7 +9511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -7691,7 +9531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -7711,7 +9551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -7731,7 +9571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -7751,7 +9591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -7771,7 +9611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -7791,7 +9631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -7811,7 +9651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -7831,7 +9671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -7851,7 +9691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -7871,7 +9711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -7891,7 +9731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -7911,7 +9751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -7931,7 +9771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -7951,7 +9791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -7971,7 +9811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -7991,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -8011,7 +9851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -8031,7 +9871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -8051,7 +9891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -8071,7 +9911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -8091,7 +9931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -8111,20 +9951,505 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="E71" s="7"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8136,22 +10461,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00479472-83FC-4533-88FC-9BEF47384DA6}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8171,7 +10496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -8191,7 +10516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -8211,7 +10536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -8231,7 +10556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -8251,7 +10576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -8271,7 +10596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -8291,7 +10616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -8311,7 +10636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -8331,7 +10656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8351,7 +10676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -8371,7 +10696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -8391,7 +10716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -8411,7 +10736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -8431,7 +10756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -8451,7 +10776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -8471,7 +10796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -8491,7 +10816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -8511,7 +10836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -8531,7 +10856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -8551,7 +10876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -8571,7 +10896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -8591,7 +10916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -8611,7 +10936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -8631,7 +10956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -8651,7 +10976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -8671,7 +10996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -8691,7 +11016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -8711,7 +11036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -8731,7 +11056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -8751,7 +11076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -8771,7 +11096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -8791,7 +11116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -8811,7 +11136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -8831,7 +11156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -8851,7 +11176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -8871,7 +11196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -8891,7 +11216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -8911,7 +11236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -8931,7 +11256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -8951,7 +11276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -8971,7 +11296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -8991,7 +11316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -9011,7 +11336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -9031,7 +11356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -9049,7 +11374,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -9067,6 +11392,503 @@
       </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45344</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9078,23 +11900,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FEE476-286F-41CD-B41E-6E9B983F9203}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9114,7 +11936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -9134,7 +11956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -9154,7 +11976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -9174,7 +11996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -9194,7 +12016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -9214,7 +12036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -9234,7 +12056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -9254,7 +12076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -9274,7 +12096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -9294,7 +12116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -9314,7 +12136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -9334,7 +12156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -9354,7 +12176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -9374,7 +12196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -9394,7 +12216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -9414,7 +12236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -9434,7 +12256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -9454,7 +12276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -9474,7 +12296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -9494,7 +12316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -9514,7 +12336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -9534,7 +12356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9554,7 +12376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -9574,7 +12396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -9594,7 +12416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -9614,7 +12436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -9634,7 +12456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -9654,7 +12476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -9674,7 +12496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -9694,7 +12516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -9714,7 +12536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -9734,7 +12556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -9754,7 +12576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -9774,7 +12596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -9794,7 +12616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -9814,7 +12636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -9834,7 +12656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -9854,7 +12676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -9874,7 +12696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -9894,7 +12716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -9914,7 +12736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -9934,7 +12756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -9954,7 +12776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -9974,7 +12796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -9994,7 +12816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -10011,6 +12833,406 @@
         <v>14</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45300</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45300</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45300</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45300</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45300</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45328</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45328</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45328</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45328</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45328</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45393</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45393</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45393</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45393</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45393</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10033,8 +13255,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E444AF913B48AB489717FD7F26C87780" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="467d17b86cfe218358f0081b1b22039f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b86c8786-3949-4751-bfbd-0a78b1a1da57" xmlns:ns3="b1310810-eaac-47f3-a903-b8b5d1f645b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b2dea0156958bfb8726599075ad8c3f" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E444AF913B48AB489717FD7F26C87780" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0fe65b6c2d221290351a0c0cf9e04617">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b86c8786-3949-4751-bfbd-0a78b1a1da57" xmlns:ns3="b1310810-eaac-47f3-a903-b8b5d1f645b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c02b22c16952e626397f03e44134df" ns2:_="" ns3:_="">
     <xsd:import namespace="b86c8786-3949-4751-bfbd-0a78b1a1da57"/>
     <xsd:import namespace="b1310810-eaac-47f3-a903-b8b5d1f645b8"/>
     <xsd:element name="properties">
@@ -10057,6 +13279,7 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10124,6 +13347,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -10277,13 +13505,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7A699F9-AAFB-4A09-ABD3-F2764CF9A6A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7A699F9-AAFB-4A09-ABD3-F2764CF9A6A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b86c8786-3949-4751-bfbd-0a78b1a1da57"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b1310810-eaac-47f3-a903-b8b5d1f645b8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9A04D7-9858-4080-A5F3-25349CBC5F17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33602917-9875-4DC8-89E0-A2835B5D3939}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b86c8786-3949-4751-bfbd-0a78b1a1da57"/>
+    <ds:schemaRef ds:uri="b1310810-eaac-47f3-a903-b8b5d1f645b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57EEE655-B139-405C-B696-B644792D51E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57EEE655-B139-405C-B696-B644792D51E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>